--- a/src/data/awards.xlsx
+++ b/src/data/awards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chirs/repos/food/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F45011-355B-DF47-80FC-BCFCD79F0D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DED06-7316-374A-8D74-97CE17A4755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="3580" windowWidth="26420" windowHeight="12920" activeTab="6" xr2:uid="{722E27AD-943D-D848-861F-DF55CFD8EDA3}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3360" uniqueCount="1004">
   <si>
     <t>Date</t>
   </si>
@@ -1205,9 +1205,6 @@
   </si>
   <si>
     <t>1701 Barbecue</t>
-  </si>
-  <si>
-    <t>Bloos Bros. BBQ</t>
   </si>
   <si>
     <t>LJ's BBQ</t>
@@ -3100,9 +3097,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6280,7 +6280,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B50" t="s">
         <v>213</v>
@@ -6574,7 +6574,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B71" t="s">
         <v>213</v>
@@ -8110,7 +8110,7 @@
         <v>2023</v>
       </c>
       <c r="E57" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -8416,7 +8416,7 @@
         <v>2023</v>
       </c>
       <c r="E75" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -8586,7 +8586,7 @@
         <v>2023</v>
       </c>
       <c r="E85" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -8603,7 +8603,7 @@
         <v>2023</v>
       </c>
       <c r="E86" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -8654,7 +8654,7 @@
         <v>2023</v>
       </c>
       <c r="E89" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -8688,7 +8688,7 @@
         <v>2023</v>
       </c>
       <c r="E91" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -8722,7 +8722,7 @@
         <v>2023</v>
       </c>
       <c r="E93" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -8807,7 +8807,7 @@
         <v>2023</v>
       </c>
       <c r="E98" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -8841,7 +8841,7 @@
         <v>2023</v>
       </c>
       <c r="E100" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -8896,10 +8896,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C2">
         <v>2024</v>
@@ -8910,108 +8910,108 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B3" t="s">
+        <v>844</v>
+      </c>
+      <c r="C3">
+        <v>2024</v>
+      </c>
+      <c r="D3" t="s">
         <v>846</v>
-      </c>
-      <c r="B3" t="s">
-        <v>845</v>
-      </c>
-      <c r="C3">
-        <v>2024</v>
-      </c>
-      <c r="D3" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C4">
         <v>2024</v>
       </c>
       <c r="D4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C5">
         <v>2024</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B6" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C6">
         <v>2024</v>
       </c>
       <c r="D6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B7" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C7">
         <v>2024</v>
       </c>
       <c r="D7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C8">
         <v>2024</v>
       </c>
       <c r="D8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B9" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C9">
         <v>2024</v>
       </c>
       <c r="D9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C10">
         <v>2024</v>
@@ -9022,80 +9022,80 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C11">
         <v>2024</v>
       </c>
       <c r="D11" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C12">
         <v>2024</v>
       </c>
       <c r="D12" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C13">
         <v>2024</v>
       </c>
       <c r="D13" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C14">
         <v>2024</v>
       </c>
       <c r="D14" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C15">
         <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B16" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C16">
         <v>2024</v>
@@ -9106,24 +9106,24 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C17">
         <v>2024</v>
       </c>
       <c r="D17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B18" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C18">
         <v>2024</v>
@@ -9134,52 +9134,52 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B19" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C19">
         <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B20" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C20">
         <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B21" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C21">
         <v>2024</v>
       </c>
       <c r="D21" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C22">
         <v>2024</v>
@@ -9190,24 +9190,24 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B23" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C23">
         <v>2024</v>
       </c>
       <c r="D23" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B24" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C24">
         <v>2024</v>
@@ -9218,24 +9218,24 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B25" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C25">
         <v>2024</v>
       </c>
       <c r="D25" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C26">
         <v>2024</v>
@@ -9246,10 +9246,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B27" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C27">
         <v>2024</v>
@@ -9260,66 +9260,66 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B28" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C28">
         <v>2024</v>
       </c>
       <c r="D28" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B29" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C29">
         <v>2024</v>
       </c>
       <c r="D29" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B30" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C30">
         <v>2024</v>
       </c>
       <c r="D30" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B31" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C31">
         <v>2024</v>
       </c>
       <c r="D31" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B32" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C32">
         <v>2024</v>
@@ -9330,52 +9330,52 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B33" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C33">
         <v>2024</v>
       </c>
       <c r="D33" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C34">
         <v>2024</v>
       </c>
       <c r="D34" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B35" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C35">
         <v>2024</v>
       </c>
       <c r="D35" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B36" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C36">
         <v>2024</v>
@@ -9386,52 +9386,52 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C37">
         <v>2024</v>
       </c>
       <c r="D37" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B38" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C38">
         <v>2024</v>
       </c>
       <c r="D38" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B39" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C39">
         <v>2024</v>
       </c>
       <c r="D39" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B40" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C40">
         <v>2024</v>
@@ -9442,24 +9442,24 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B41" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C41">
         <v>2024</v>
       </c>
       <c r="D41" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B42" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C42">
         <v>2024</v>
@@ -9470,52 +9470,52 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C43">
         <v>2024</v>
       </c>
       <c r="D43" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B44" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C44">
         <v>2024</v>
       </c>
       <c r="D44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B45" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C45">
         <v>2024</v>
       </c>
       <c r="D45" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B46" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C46">
         <v>2024</v>
@@ -9526,24 +9526,24 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B47" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C47">
         <v>2024</v>
       </c>
       <c r="D47" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B48" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C48">
         <v>2024</v>
@@ -9554,10 +9554,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B49" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C49">
         <v>2024</v>
@@ -9568,122 +9568,122 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B50" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C50">
         <v>2024</v>
       </c>
       <c r="D50" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B51" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C51">
         <v>2024</v>
       </c>
       <c r="D51" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B52" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C52">
         <v>2024</v>
       </c>
       <c r="D52" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C53">
         <v>2024</v>
       </c>
       <c r="D53" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B54" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C54">
         <v>2024</v>
       </c>
       <c r="D54" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B55" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C55">
         <v>2024</v>
       </c>
       <c r="D55" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B56" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C56">
         <v>2024</v>
       </c>
       <c r="D56" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B57" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C57">
         <v>2024</v>
       </c>
       <c r="D57" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B58" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C58">
         <v>2024</v>
@@ -9694,24 +9694,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B59" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C59">
         <v>2024</v>
       </c>
       <c r="D59" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B60" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C60">
         <v>2024</v>
@@ -9722,24 +9722,24 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B61" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C61">
         <v>2024</v>
       </c>
       <c r="D61" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B62" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C62">
         <v>2024</v>
@@ -9750,10 +9750,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B63" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C63">
         <v>2024</v>
@@ -9764,52 +9764,52 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B64" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C64">
         <v>2024</v>
       </c>
       <c r="D64" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B65" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C65">
         <v>2024</v>
       </c>
       <c r="D65" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B66" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C66">
         <v>2024</v>
       </c>
       <c r="D66" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B67" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C67">
         <v>2024</v>
@@ -9820,10 +9820,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B68" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C68">
         <v>2024</v>
@@ -9834,10 +9834,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B69" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C69">
         <v>2024</v>
@@ -9848,24 +9848,24 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B70" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C70">
         <v>2024</v>
       </c>
       <c r="D70" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B71" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C71">
         <v>2024</v>
@@ -9876,94 +9876,94 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B72" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C72">
         <v>2024</v>
       </c>
       <c r="D72" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B73" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C73">
         <v>2024</v>
       </c>
       <c r="D73" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B74" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C74">
         <v>2024</v>
       </c>
       <c r="D74" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B75" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C75">
         <v>2024</v>
       </c>
       <c r="D75" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B76" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C76">
         <v>2024</v>
       </c>
       <c r="D76" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B77" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C77">
         <v>2024</v>
       </c>
       <c r="D77" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B78" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C78">
         <v>2024</v>
@@ -9974,10 +9974,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B79" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C79">
         <v>2024</v>
@@ -9988,10 +9988,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B80" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C80">
         <v>2024</v>
@@ -10002,136 +10002,136 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B81" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C81">
         <v>2024</v>
       </c>
       <c r="D81" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B82" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C82">
         <v>2024</v>
       </c>
       <c r="D82" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B83" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C83">
         <v>2024</v>
       </c>
       <c r="D83" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B84" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C84">
         <v>2024</v>
       </c>
       <c r="D84" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B85" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C85">
         <v>2024</v>
       </c>
       <c r="D85" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B86" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C86">
         <v>2024</v>
       </c>
       <c r="D86" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B87" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C87">
         <v>2024</v>
       </c>
       <c r="D87" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B88" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C88">
         <v>2024</v>
       </c>
       <c r="D88" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B89" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C89">
         <v>2024</v>
       </c>
       <c r="D89" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B90" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C90">
         <v>2024</v>
@@ -10142,142 +10142,142 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B91" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C91">
         <v>2024</v>
       </c>
       <c r="D91" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B92" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C92">
         <v>2024</v>
       </c>
       <c r="D92" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B93" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C93">
         <v>2024</v>
       </c>
       <c r="D93" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B94" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C94">
         <v>2024</v>
       </c>
       <c r="D94" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B95" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C95">
         <v>2024</v>
       </c>
       <c r="D95" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B96" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C96">
         <v>2024</v>
       </c>
       <c r="D96" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B97" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C97">
         <v>2024</v>
       </c>
       <c r="D97" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B98" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C98">
         <v>2024</v>
       </c>
       <c r="D98" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B99" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C99">
         <v>2024</v>
       </c>
       <c r="D99" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B100" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C100">
         <v>2024</v>
       </c>
       <c r="D100" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
@@ -10321,7 +10321,7 @@
         <v>257</v>
       </c>
       <c r="C2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D2" s="1">
         <v>45573</v>
@@ -10335,7 +10335,7 @@
         <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D3" s="1">
         <v>45573</v>
@@ -10349,7 +10349,7 @@
         <v>257</v>
       </c>
       <c r="C4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D4" s="1">
         <v>45573</v>
@@ -10363,7 +10363,7 @@
         <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D5" s="1">
         <v>45573</v>
@@ -10377,7 +10377,7 @@
         <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D6" s="1">
         <v>45573</v>
@@ -10391,7 +10391,7 @@
         <v>257</v>
       </c>
       <c r="C7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D7" s="1">
         <v>45573</v>
@@ -10405,7 +10405,7 @@
         <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D8" s="1">
         <v>45573</v>
@@ -10419,7 +10419,7 @@
         <v>257</v>
       </c>
       <c r="C9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D9" s="1">
         <v>45573</v>
@@ -10433,7 +10433,7 @@
         <v>257</v>
       </c>
       <c r="C10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D10" s="1">
         <v>45573</v>
@@ -10447,7 +10447,7 @@
         <v>257</v>
       </c>
       <c r="C11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D11" s="1">
         <v>45573</v>
@@ -10461,7 +10461,7 @@
         <v>257</v>
       </c>
       <c r="C12" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D12" s="1">
         <v>45573</v>
@@ -10475,7 +10475,7 @@
         <v>257</v>
       </c>
       <c r="C13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D13" s="1">
         <v>45573</v>
@@ -10489,7 +10489,7 @@
         <v>257</v>
       </c>
       <c r="C14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D14" s="1">
         <v>45573</v>
@@ -10503,7 +10503,7 @@
         <v>257</v>
       </c>
       <c r="C15" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D15" s="1">
         <v>45573</v>
@@ -10517,7 +10517,7 @@
         <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D16" s="1">
         <v>45573</v>
@@ -10531,7 +10531,7 @@
         <v>257</v>
       </c>
       <c r="C17" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D17" s="1">
         <v>45573</v>
@@ -10545,7 +10545,7 @@
         <v>257</v>
       </c>
       <c r="C18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D18" s="1">
         <v>45573</v>
@@ -10559,7 +10559,7 @@
         <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D19" s="1">
         <v>45573</v>
@@ -10573,7 +10573,7 @@
         <v>257</v>
       </c>
       <c r="C20" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D20" s="1">
         <v>45573</v>
@@ -10587,7 +10587,7 @@
         <v>257</v>
       </c>
       <c r="C21" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D21" s="1">
         <v>45573</v>
@@ -10601,7 +10601,7 @@
         <v>257</v>
       </c>
       <c r="C22" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D22" s="1">
         <v>45573</v>
@@ -10615,7 +10615,7 @@
         <v>257</v>
       </c>
       <c r="C23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D23" s="1">
         <v>45573</v>
@@ -10629,7 +10629,7 @@
         <v>257</v>
       </c>
       <c r="C24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D24" s="1">
         <v>45573</v>
@@ -10643,7 +10643,7 @@
         <v>257</v>
       </c>
       <c r="C25" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D25" s="1">
         <v>45573</v>
@@ -10657,7 +10657,7 @@
         <v>257</v>
       </c>
       <c r="C26" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D26" s="1">
         <v>45573</v>
@@ -10671,7 +10671,7 @@
         <v>257</v>
       </c>
       <c r="C27" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D27" s="1">
         <v>45573</v>
@@ -10685,7 +10685,7 @@
         <v>257</v>
       </c>
       <c r="C28" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D28" s="1">
         <v>45573</v>
@@ -10699,7 +10699,7 @@
         <v>257</v>
       </c>
       <c r="C29" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D29" s="1">
         <v>45573</v>
@@ -10713,7 +10713,7 @@
         <v>257</v>
       </c>
       <c r="C30" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D30" s="1">
         <v>45573</v>
@@ -10727,7 +10727,7 @@
         <v>257</v>
       </c>
       <c r="C31" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D31" s="1">
         <v>45573</v>
@@ -10741,7 +10741,7 @@
         <v>257</v>
       </c>
       <c r="C32" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D32" s="1">
         <v>45573</v>
@@ -10755,7 +10755,7 @@
         <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D33" s="1">
         <v>45573</v>
@@ -10769,7 +10769,7 @@
         <v>257</v>
       </c>
       <c r="C34" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D34" s="1">
         <v>45573</v>
@@ -10783,7 +10783,7 @@
         <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D35" s="1">
         <v>45573</v>
@@ -10797,7 +10797,7 @@
         <v>257</v>
       </c>
       <c r="C36" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D36" s="1">
         <v>45573</v>
@@ -10811,7 +10811,7 @@
         <v>257</v>
       </c>
       <c r="C37" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D37" s="1">
         <v>45573</v>
@@ -10825,7 +10825,7 @@
         <v>257</v>
       </c>
       <c r="C38" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D38" s="1">
         <v>45573</v>
@@ -10839,7 +10839,7 @@
         <v>257</v>
       </c>
       <c r="C39" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D39" s="1">
         <v>45573</v>
@@ -10847,13 +10847,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D40" s="1">
         <v>45399</v>
@@ -10864,10 +10864,10 @@
         <v>147</v>
       </c>
       <c r="B41" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C41" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D41" s="1">
         <v>45399</v>
@@ -10875,13 +10875,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B42" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C42" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D42" s="1">
         <v>45399</v>
@@ -10892,10 +10892,10 @@
         <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C43" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D43" s="1">
         <v>45399</v>
@@ -10903,13 +10903,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B44" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C44" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D44" s="1">
         <v>45399</v>
@@ -10917,13 +10917,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B45" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C45" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D45" s="1">
         <v>45399</v>
@@ -10934,10 +10934,10 @@
         <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C46" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D46" s="1">
         <v>45399</v>
@@ -10945,13 +10945,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B47" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C47" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D47" s="1">
         <v>45399</v>
@@ -10962,10 +10962,10 @@
         <v>166</v>
       </c>
       <c r="B48" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C48" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D48" s="1">
         <v>45399</v>
@@ -10973,13 +10973,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B49" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C49" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D49" s="1">
         <v>45399</v>
@@ -10987,13 +10987,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B50" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C50" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D50" s="1">
         <v>45399</v>
@@ -11004,10 +11004,10 @@
         <v>171</v>
       </c>
       <c r="B51" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C51" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D51" s="1">
         <v>45399</v>
@@ -11015,13 +11015,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B52" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C52" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D52" s="1">
         <v>45399</v>
@@ -11029,13 +11029,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>801</v>
+      </c>
+      <c r="B53" t="s">
+        <v>792</v>
+      </c>
+      <c r="C53" t="s">
         <v>802</v>
-      </c>
-      <c r="B53" t="s">
-        <v>793</v>
-      </c>
-      <c r="C53" t="s">
-        <v>803</v>
       </c>
       <c r="D53" s="1">
         <v>45399</v>
@@ -11043,13 +11043,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B54" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C54" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D54" s="1">
         <v>45399</v>
@@ -11060,10 +11060,10 @@
         <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C55" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D55" s="1">
         <v>43732</v>
@@ -11071,13 +11071,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B56" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C56" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D56" s="1">
         <v>43732</v>
@@ -11085,13 +11085,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B57" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C57" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D57" s="1">
         <v>43732</v>
@@ -11099,13 +11099,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B58" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C58" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D58" s="1">
         <v>43732</v>
@@ -11113,13 +11113,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B59" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C59" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D59" s="1">
         <v>43732</v>
@@ -11127,13 +11127,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B60" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C60" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D60" s="1">
         <v>43732</v>
@@ -11141,13 +11141,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B61" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C61" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D61" s="1">
         <v>43732</v>
@@ -11158,10 +11158,10 @@
         <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C62" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D62" s="1">
         <v>43732</v>
@@ -11169,13 +11169,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B63" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C63" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D63" s="1">
         <v>43732</v>
@@ -11183,13 +11183,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B64" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C64" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D64" s="1">
         <v>43732</v>
@@ -11197,13 +11197,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B65" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C65" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D65" s="1">
         <v>43732</v>
@@ -11211,13 +11211,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>801</v>
+      </c>
+      <c r="B66" t="s">
+        <v>804</v>
+      </c>
+      <c r="C66" t="s">
         <v>802</v>
-      </c>
-      <c r="B66" t="s">
-        <v>805</v>
-      </c>
-      <c r="C66" t="s">
-        <v>803</v>
       </c>
       <c r="D66" s="1">
         <v>43732</v>
@@ -11225,13 +11225,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B67" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C67" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D67" s="1">
         <v>43732</v>
@@ -11239,13 +11239,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B68" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C68" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D68" s="1">
         <v>43732</v>
@@ -11253,13 +11253,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>813</v>
+      </c>
+      <c r="B69" t="s">
         <v>814</v>
       </c>
-      <c r="B69" t="s">
-        <v>815</v>
-      </c>
       <c r="C69" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D69" s="1">
         <v>42081</v>
@@ -11267,13 +11267,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B70" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C70" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D70" s="1">
         <v>42081</v>
@@ -11281,13 +11281,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B71" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C71" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D71" s="1">
         <v>42081</v>
@@ -11295,13 +11295,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B72" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C72" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D72" s="1">
         <v>42081</v>
@@ -11309,13 +11309,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B73" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C73" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D73" s="1">
         <v>42081</v>
@@ -11323,13 +11323,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B74" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C74" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D74" s="1">
         <v>42081</v>
@@ -11337,13 +11337,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B75" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C75" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D75" s="1">
         <v>42081</v>
@@ -11351,13 +11351,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B76" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C76" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D76" s="1">
         <v>42081</v>
@@ -11365,13 +11365,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B77" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C77" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D77" s="1">
         <v>42081</v>
@@ -11379,13 +11379,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B78" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C78" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D78" s="1">
         <v>42081</v>
@@ -11396,10 +11396,10 @@
         <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C79" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D79" s="1">
         <v>42081</v>
@@ -11407,13 +11407,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B80" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C80" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D80" s="1">
         <v>42081</v>
@@ -11421,13 +11421,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B81" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C81" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D81" s="1">
         <v>42081</v>
@@ -11435,13 +11435,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B82" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C82" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D82" s="1">
         <v>42081</v>
@@ -11449,13 +11449,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B83" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C83" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D83" s="1">
         <v>42081</v>
@@ -11466,10 +11466,10 @@
         <v>360</v>
       </c>
       <c r="B84" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C84" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D84" s="1">
         <v>45441</v>
@@ -11477,13 +11477,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B85" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C85" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D85" s="1">
         <v>45441</v>
@@ -11491,13 +11491,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B86" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C86" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D86" s="1">
         <v>45441</v>
@@ -11505,13 +11505,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B87" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C87" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D87" s="1">
         <v>45441</v>
@@ -11522,10 +11522,10 @@
         <v>269</v>
       </c>
       <c r="B88" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C88" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D88" s="1">
         <v>45441</v>
@@ -11533,13 +11533,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B89" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C89" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D89" s="1">
         <v>45441</v>
@@ -11550,10 +11550,10 @@
         <v>284</v>
       </c>
       <c r="B90" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C90" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D90" s="1">
         <v>45441</v>
@@ -11561,13 +11561,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B91" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C91" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D91" s="1">
         <v>45441</v>
@@ -11578,10 +11578,10 @@
         <v>293</v>
       </c>
       <c r="B92" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C92" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D92" s="1">
         <v>45441</v>
@@ -11592,10 +11592,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C93" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D93" s="1">
         <v>45441</v>
@@ -11606,10 +11606,10 @@
         <v>385</v>
       </c>
       <c r="B94" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C94" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D94" s="1">
         <v>45441</v>
@@ -11620,10 +11620,10 @@
         <v>379</v>
       </c>
       <c r="B95" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C95" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D95" s="1">
         <v>45441</v>
@@ -11634,10 +11634,10 @@
         <v>280</v>
       </c>
       <c r="B96" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C96" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D96" s="1">
         <v>45441</v>
@@ -11648,10 +11648,10 @@
         <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C97" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D97" s="1">
         <v>45441</v>
@@ -11662,10 +11662,10 @@
         <v>284</v>
       </c>
       <c r="B98" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C98" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D98" s="1">
         <v>42173</v>
@@ -11676,10 +11676,10 @@
         <v>269</v>
       </c>
       <c r="B99" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C99" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D99" s="1">
         <v>42173</v>
@@ -11687,13 +11687,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B100" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C100" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D100" s="1">
         <v>42173</v>
@@ -11701,13 +11701,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B101" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C101" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D101" s="1">
         <v>42173</v>
@@ -11718,10 +11718,10 @@
         <v>367</v>
       </c>
       <c r="B102" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C102" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D102" s="1">
         <v>42173</v>
@@ -11729,13 +11729,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B103" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C103" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D103" s="1">
         <v>42173</v>
@@ -11746,10 +11746,10 @@
         <v>360</v>
       </c>
       <c r="B104" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C104" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D104" s="1">
         <v>42173</v>
@@ -11760,10 +11760,10 @@
         <v>379</v>
       </c>
       <c r="B105" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C105" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D105" s="1">
         <v>42173</v>
@@ -11774,10 +11774,10 @@
         <v>312</v>
       </c>
       <c r="B106" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C106" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D106" s="1">
         <v>42173</v>
@@ -11785,13 +11785,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B107" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C107" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D107" s="1">
         <v>42173</v>
@@ -11799,13 +11799,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B108" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C108" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D108" s="1">
         <v>42173</v>
@@ -11813,13 +11813,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B109" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C109" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D109" s="1">
         <v>42173</v>
@@ -11835,8 +11835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBAE03D-5329-9C4B-844F-64E635BB3747}">
   <dimension ref="A1:M176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11959,7 +11959,7 @@
         <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C4">
         <v>2013</v>
@@ -11994,7 +11994,7 @@
         <v>285</v>
       </c>
       <c r="B5" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C5">
         <v>2013</v>
@@ -12029,7 +12029,7 @@
         <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C6">
         <v>2013</v>
@@ -12064,7 +12064,7 @@
         <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C7">
         <v>2013</v>
@@ -12082,7 +12082,7 @@
         <v>2010</v>
       </c>
       <c r="I7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J7">
         <v>45</v>
@@ -12239,7 +12239,7 @@
         <v>290</v>
       </c>
       <c r="B12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C12">
         <v>2013</v>
@@ -12274,7 +12274,7 @@
         <v>291</v>
       </c>
       <c r="B13" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C13">
         <v>2013</v>
@@ -12309,7 +12309,7 @@
         <v>292</v>
       </c>
       <c r="B14" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C14">
         <v>2013</v>
@@ -12379,7 +12379,7 @@
         <v>294</v>
       </c>
       <c r="B16" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C16">
         <v>2013</v>
@@ -12414,7 +12414,7 @@
         <v>295</v>
       </c>
       <c r="B17" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C17">
         <v>2013</v>
@@ -12432,13 +12432,13 @@
         <v>1974</v>
       </c>
       <c r="I17" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J17">
         <v>67</v>
       </c>
       <c r="K17" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L17" t="s">
         <v>324</v>
@@ -12467,13 +12467,13 @@
         <v>1983</v>
       </c>
       <c r="I18" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J18">
         <v>58</v>
       </c>
       <c r="K18" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L18" t="s">
         <v>324</v>
@@ -12502,13 +12502,13 @@
         <v>1995</v>
       </c>
       <c r="I19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J19">
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L19" t="s">
         <v>324</v>
@@ -12519,7 +12519,7 @@
         <v>298</v>
       </c>
       <c r="B20" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C20">
         <v>2013</v>
@@ -12537,10 +12537,10 @@
         <v>2003</v>
       </c>
       <c r="I20" t="s">
+        <v>462</v>
+      </c>
+      <c r="J20" t="s">
         <v>463</v>
-      </c>
-      <c r="J20" t="s">
-        <v>464</v>
       </c>
       <c r="K20" t="s">
         <v>326</v>
@@ -12554,7 +12554,7 @@
         <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C21">
         <v>2013</v>
@@ -12572,7 +12572,7 @@
         <v>2003</v>
       </c>
       <c r="I21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J21">
         <v>27</v>
@@ -12589,7 +12589,7 @@
         <v>300</v>
       </c>
       <c r="B22" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C22">
         <v>2013</v>
@@ -12607,7 +12607,7 @@
         <v>2009</v>
       </c>
       <c r="I22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="J22">
         <v>64</v>
@@ -12621,10 +12621,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C23">
         <v>2013</v>
@@ -12642,7 +12642,7 @@
         <v>1941</v>
       </c>
       <c r="I23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J23">
         <v>57</v>
@@ -12659,7 +12659,7 @@
         <v>301</v>
       </c>
       <c r="B24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C24">
         <v>2013</v>
@@ -12677,13 +12677,13 @@
         <v>1968</v>
       </c>
       <c r="I24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J24">
         <v>35</v>
       </c>
       <c r="K24" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L24" t="s">
         <v>324</v>
@@ -12694,7 +12694,7 @@
         <v>302</v>
       </c>
       <c r="B25" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C25">
         <v>2013</v>
@@ -12712,13 +12712,13 @@
         <v>1980</v>
       </c>
       <c r="I25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J25">
         <v>73</v>
       </c>
       <c r="K25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L25" t="s">
         <v>324</v>
@@ -12747,13 +12747,13 @@
         <v>2010</v>
       </c>
       <c r="I26" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J26">
         <v>33</v>
       </c>
       <c r="K26" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L26" t="s">
         <v>324</v>
@@ -12782,7 +12782,7 @@
         <v>2005</v>
       </c>
       <c r="I27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J27">
         <v>48</v>
@@ -12799,7 +12799,7 @@
         <v>304</v>
       </c>
       <c r="B28" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C28">
         <v>2013</v>
@@ -12814,16 +12814,16 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
+        <v>472</v>
+      </c>
+      <c r="I28" t="s">
         <v>473</v>
-      </c>
-      <c r="I28" t="s">
-        <v>474</v>
       </c>
       <c r="J28">
         <v>67</v>
       </c>
       <c r="K28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L28" t="s">
         <v>324</v>
@@ -12834,7 +12834,7 @@
         <v>305</v>
       </c>
       <c r="B29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C29">
         <v>2013</v>
@@ -12852,7 +12852,7 @@
         <v>1993</v>
       </c>
       <c r="I29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J29">
         <v>45</v>
@@ -12869,7 +12869,7 @@
         <v>306</v>
       </c>
       <c r="B30" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C30">
         <v>2013</v>
@@ -12887,13 +12887,13 @@
         <v>1997</v>
       </c>
       <c r="I30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J30">
         <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="L30" t="s">
         <v>324</v>
@@ -12904,7 +12904,7 @@
         <v>307</v>
       </c>
       <c r="B31" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C31">
         <v>2013</v>
@@ -12922,13 +12922,13 @@
         <v>2009</v>
       </c>
       <c r="I31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J31">
         <v>62</v>
       </c>
       <c r="K31" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L31" t="s">
         <v>324</v>
@@ -12939,7 +12939,7 @@
         <v>308</v>
       </c>
       <c r="B32" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C32">
         <v>2013</v>
@@ -12960,7 +12960,7 @@
         <v>326</v>
       </c>
       <c r="L32" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -12986,7 +12986,7 @@
         <v>1932</v>
       </c>
       <c r="I33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J33">
         <v>60</v>
@@ -13021,7 +13021,7 @@
         <v>1990</v>
       </c>
       <c r="I34" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J34">
         <v>51</v>
@@ -13035,10 +13035,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C35">
         <v>2013</v>
@@ -13056,7 +13056,7 @@
         <v>1958</v>
       </c>
       <c r="I35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J35">
         <v>66</v>
@@ -13065,7 +13065,7 @@
         <v>323</v>
       </c>
       <c r="L35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -13073,7 +13073,7 @@
         <v>311</v>
       </c>
       <c r="B36" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="C36">
         <v>2013</v>
@@ -13091,13 +13091,13 @@
         <v>2000</v>
       </c>
       <c r="I36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J36">
         <v>62</v>
       </c>
       <c r="K36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L36" t="s">
         <v>324</v>
@@ -13126,13 +13126,13 @@
         <v>1978</v>
       </c>
       <c r="I37" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J37">
         <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L37" t="s">
         <v>324</v>
@@ -13143,7 +13143,7 @@
         <v>313</v>
       </c>
       <c r="B38" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C38">
         <v>2013</v>
@@ -13161,7 +13161,7 @@
         <v>1991</v>
       </c>
       <c r="I38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J38">
         <v>58</v>
@@ -13178,7 +13178,7 @@
         <v>314</v>
       </c>
       <c r="B39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C39">
         <v>2013</v>
@@ -13196,13 +13196,13 @@
         <v>2006</v>
       </c>
       <c r="I39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J39">
         <v>51</v>
       </c>
       <c r="K39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="L39" t="s">
         <v>336</v>
@@ -13213,7 +13213,7 @@
         <v>315</v>
       </c>
       <c r="B40" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C40">
         <v>2013</v>
@@ -13242,7 +13242,7 @@
         <v>316</v>
       </c>
       <c r="B41" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C41">
         <v>2013</v>
@@ -13260,7 +13260,7 @@
         <v>2011</v>
       </c>
       <c r="I41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J41">
         <v>38</v>
@@ -13277,7 +13277,7 @@
         <v>347</v>
       </c>
       <c r="B42" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C42">
         <v>2013</v>
@@ -13365,7 +13365,7 @@
         <v>2009</v>
       </c>
       <c r="I44" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J44">
         <v>29</v>
@@ -13382,7 +13382,7 @@
         <v>353</v>
       </c>
       <c r="B45" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C45">
         <v>2013</v>
@@ -13400,10 +13400,10 @@
         <v>2007</v>
       </c>
       <c r="I45" t="s">
+        <v>494</v>
+      </c>
+      <c r="J45" t="s">
         <v>495</v>
-      </c>
-      <c r="J45" t="s">
-        <v>496</v>
       </c>
       <c r="K45" t="s">
         <v>323</v>
@@ -13417,7 +13417,7 @@
         <v>354</v>
       </c>
       <c r="B46" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C46">
         <v>2013</v>
@@ -13435,7 +13435,7 @@
         <v>1980</v>
       </c>
       <c r="I46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J46">
         <v>54</v>
@@ -13452,7 +13452,7 @@
         <v>355</v>
       </c>
       <c r="B47" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="C47">
         <v>2013</v>
@@ -13470,7 +13470,7 @@
         <v>1999</v>
       </c>
       <c r="I47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J47">
         <v>31</v>
@@ -13505,13 +13505,13 @@
         <v>2011</v>
       </c>
       <c r="I48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J48">
         <v>34</v>
       </c>
       <c r="K48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L48" t="s">
         <v>324</v>
@@ -13522,7 +13522,7 @@
         <v>357</v>
       </c>
       <c r="B49" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C49">
         <v>2013</v>
@@ -13540,16 +13540,16 @@
         <v>1959</v>
       </c>
       <c r="I49" t="s">
+        <v>500</v>
+      </c>
+      <c r="J49" t="s">
         <v>501</v>
-      </c>
-      <c r="J49" t="s">
-        <v>502</v>
       </c>
       <c r="K49" t="s">
         <v>331</v>
       </c>
       <c r="L49" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -13557,7 +13557,7 @@
         <v>358</v>
       </c>
       <c r="B50" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C50">
         <v>2013</v>
@@ -13575,16 +13575,16 @@
         <v>2000</v>
       </c>
       <c r="I50" t="s">
+        <v>502</v>
+      </c>
+      <c r="J50" t="s">
         <v>503</v>
       </c>
-      <c r="J50" t="s">
-        <v>504</v>
-      </c>
       <c r="K50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L50" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -13592,7 +13592,7 @@
         <v>359</v>
       </c>
       <c r="B51" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C51">
         <v>2013</v>
@@ -13610,7 +13610,7 @@
         <v>2000</v>
       </c>
       <c r="I51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J51">
         <v>57</v>
@@ -13619,7 +13619,7 @@
         <v>326</v>
       </c>
       <c r="L51" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -13627,7 +13627,7 @@
         <v>232</v>
       </c>
       <c r="B52" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C52">
         <v>2017</v>
@@ -13648,10 +13648,10 @@
         <v>2003</v>
       </c>
       <c r="I52" t="s">
+        <v>505</v>
+      </c>
+      <c r="J52" t="s">
         <v>506</v>
-      </c>
-      <c r="J52" t="s">
-        <v>507</v>
       </c>
       <c r="K52" t="s">
         <v>323</v>
@@ -13686,10 +13686,10 @@
         <v>2009</v>
       </c>
       <c r="I53" t="s">
+        <v>452</v>
+      </c>
+      <c r="J53" t="s">
         <v>453</v>
-      </c>
-      <c r="J53" t="s">
-        <v>454</v>
       </c>
       <c r="K53" t="s">
         <v>323</v>
@@ -13724,16 +13724,16 @@
         <v>2013</v>
       </c>
       <c r="I54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J54">
         <v>59</v>
       </c>
       <c r="K54" t="s">
+        <v>508</v>
+      </c>
+      <c r="L54" t="s">
         <v>509</v>
-      </c>
-      <c r="L54" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -13741,7 +13741,7 @@
         <v>361</v>
       </c>
       <c r="B55" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C55">
         <v>2017</v>
@@ -13762,16 +13762,16 @@
         <v>1968</v>
       </c>
       <c r="I55" t="s">
+        <v>510</v>
+      </c>
+      <c r="J55" t="s">
         <v>511</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>512</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>513</v>
-      </c>
-      <c r="L55" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -13779,7 +13779,7 @@
         <v>285</v>
       </c>
       <c r="B56" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C56">
         <v>2017</v>
@@ -13838,10 +13838,10 @@
         <v>2015</v>
       </c>
       <c r="I57" t="s">
+        <v>514</v>
+      </c>
+      <c r="J57" t="s">
         <v>515</v>
-      </c>
-      <c r="J57" t="s">
-        <v>516</v>
       </c>
       <c r="K57" t="s">
         <v>323</v>
@@ -13876,16 +13876,16 @@
         <v>2011</v>
       </c>
       <c r="I58" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J58">
         <v>38</v>
       </c>
       <c r="K58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L58" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -13914,7 +13914,7 @@
         <v>2012</v>
       </c>
       <c r="I59" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J59">
         <v>39</v>
@@ -13931,7 +13931,7 @@
         <v>362</v>
       </c>
       <c r="B60" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C60">
         <v>2017</v>
@@ -13952,7 +13952,7 @@
         <v>2015</v>
       </c>
       <c r="I60" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J60">
         <v>33</v>
@@ -13961,7 +13961,7 @@
         <v>333</v>
       </c>
       <c r="L60" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -13969,7 +13969,7 @@
         <v>363</v>
       </c>
       <c r="B61" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C61">
         <v>2017</v>
@@ -13990,7 +13990,7 @@
         <v>2015</v>
       </c>
       <c r="I61" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="J61">
         <v>28</v>
@@ -14025,7 +14025,7 @@
         <v>2016</v>
       </c>
       <c r="I62" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J62">
         <v>32</v>
@@ -14039,10 +14039,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B63" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C63">
         <v>2017</v>
@@ -14060,7 +14060,7 @@
         <v>1958</v>
       </c>
       <c r="I63" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J63">
         <v>70</v>
@@ -14074,7 +14074,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B64" t="s">
         <v>124</v>
@@ -14095,10 +14095,10 @@
         <v>2012</v>
       </c>
       <c r="I64" t="s">
+        <v>454</v>
+      </c>
+      <c r="J64" t="s">
         <v>455</v>
-      </c>
-      <c r="J64" t="s">
-        <v>456</v>
       </c>
       <c r="K64" t="s">
         <v>323</v>
@@ -14112,7 +14112,7 @@
         <v>353</v>
       </c>
       <c r="B65" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C65">
         <v>2017</v>
@@ -14130,10 +14130,10 @@
         <v>2007</v>
       </c>
       <c r="I65" t="s">
+        <v>522</v>
+      </c>
+      <c r="J65" t="s">
         <v>523</v>
-      </c>
-      <c r="J65" t="s">
-        <v>524</v>
       </c>
       <c r="K65" t="s">
         <v>323</v>
@@ -14165,13 +14165,13 @@
         <v>1978</v>
       </c>
       <c r="I66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J66">
         <v>36</v>
       </c>
       <c r="K66" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L66" t="s">
         <v>324</v>
@@ -14200,16 +14200,16 @@
         <v>2014</v>
       </c>
       <c r="I67" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J67">
         <v>44</v>
       </c>
       <c r="K67" t="s">
+        <v>526</v>
+      </c>
+      <c r="L67" t="s">
         <v>527</v>
-      </c>
-      <c r="L67" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -14235,10 +14235,10 @@
         <v>2012</v>
       </c>
       <c r="I68" t="s">
+        <v>528</v>
+      </c>
+      <c r="J68" t="s">
         <v>529</v>
-      </c>
-      <c r="J68" t="s">
-        <v>530</v>
       </c>
       <c r="K68" t="s">
         <v>323</v>
@@ -14270,7 +14270,7 @@
         <v>2014</v>
       </c>
       <c r="I69" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J69">
         <v>44</v>
@@ -14287,7 +14287,7 @@
         <v>357</v>
       </c>
       <c r="B70" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C70">
         <v>2017</v>
@@ -14305,16 +14305,16 @@
         <v>1959</v>
       </c>
       <c r="I70" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J70" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K70" t="s">
         <v>331</v>
       </c>
       <c r="L70" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -14340,10 +14340,10 @@
         <v>2011</v>
       </c>
       <c r="I71" t="s">
+        <v>532</v>
+      </c>
+      <c r="J71" t="s">
         <v>533</v>
-      </c>
-      <c r="J71" t="s">
-        <v>534</v>
       </c>
       <c r="K71" t="s">
         <v>323</v>
@@ -14357,7 +14357,7 @@
         <v>367</v>
       </c>
       <c r="B72" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C72">
         <v>2017</v>
@@ -14375,7 +14375,7 @@
         <v>2013</v>
       </c>
       <c r="I72" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J72">
         <v>60</v>
@@ -14384,7 +14384,7 @@
         <v>323</v>
       </c>
       <c r="L72" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -14392,7 +14392,7 @@
         <v>368</v>
       </c>
       <c r="B73" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C73">
         <v>2017</v>
@@ -14410,10 +14410,10 @@
         <v>2007</v>
       </c>
       <c r="I73" t="s">
+        <v>536</v>
+      </c>
+      <c r="J73" t="s">
         <v>537</v>
-      </c>
-      <c r="J73" t="s">
-        <v>538</v>
       </c>
       <c r="K73" t="s">
         <v>323</v>
@@ -14427,7 +14427,7 @@
         <v>291</v>
       </c>
       <c r="B74" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C74">
         <v>2017</v>
@@ -14451,7 +14451,7 @@
         <v>53</v>
       </c>
       <c r="K74" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L74" t="s">
         <v>324</v>
@@ -14462,7 +14462,7 @@
         <v>369</v>
       </c>
       <c r="B75" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C75">
         <v>2017</v>
@@ -14480,7 +14480,7 @@
         <v>2016</v>
       </c>
       <c r="I75" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J75">
         <v>28</v>
@@ -14489,7 +14489,7 @@
         <v>323</v>
       </c>
       <c r="L75" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -14497,7 +14497,7 @@
         <v>370</v>
       </c>
       <c r="B76" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C76">
         <v>2017</v>
@@ -14515,7 +14515,7 @@
         <v>2008</v>
       </c>
       <c r="I76" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J76">
         <v>55</v>
@@ -14524,7 +14524,7 @@
         <v>326</v>
       </c>
       <c r="L76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -14550,7 +14550,7 @@
         <v>1900</v>
       </c>
       <c r="I77" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J77">
         <v>55</v>
@@ -14559,7 +14559,7 @@
         <v>323</v>
       </c>
       <c r="L77" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -14567,7 +14567,7 @@
         <v>290</v>
       </c>
       <c r="B78" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C78">
         <v>2017</v>
@@ -14585,10 +14585,10 @@
         <v>2008</v>
       </c>
       <c r="I78" t="s">
+        <v>544</v>
+      </c>
+      <c r="J78" t="s">
         <v>545</v>
-      </c>
-      <c r="J78" t="s">
-        <v>546</v>
       </c>
       <c r="K78" t="s">
         <v>340</v>
@@ -14626,7 +14626,7 @@
         <v>40</v>
       </c>
       <c r="K79" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="L79" t="s">
         <v>324</v>
@@ -14655,16 +14655,16 @@
         <v>2016</v>
       </c>
       <c r="I80" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J80">
         <v>28</v>
       </c>
       <c r="K80" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -14672,7 +14672,7 @@
         <v>372</v>
       </c>
       <c r="B81" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C81">
         <v>2017</v>
@@ -14690,7 +14690,7 @@
         <v>2013</v>
       </c>
       <c r="I81" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J81">
         <v>31</v>
@@ -14699,7 +14699,7 @@
         <v>326</v>
       </c>
       <c r="L81" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -14725,10 +14725,10 @@
         <v>2014</v>
       </c>
       <c r="I82" t="s">
+        <v>548</v>
+      </c>
+      <c r="J82" t="s">
         <v>549</v>
-      </c>
-      <c r="J82" t="s">
-        <v>550</v>
       </c>
       <c r="K82" t="s">
         <v>323</v>
@@ -14760,10 +14760,10 @@
         <v>2012</v>
       </c>
       <c r="I83" t="s">
+        <v>550</v>
+      </c>
+      <c r="J83" t="s">
         <v>551</v>
-      </c>
-      <c r="J83" t="s">
-        <v>552</v>
       </c>
       <c r="K83" t="s">
         <v>333</v>
@@ -14795,16 +14795,16 @@
         <v>2016</v>
       </c>
       <c r="I84" t="s">
+        <v>552</v>
+      </c>
+      <c r="J84" t="s">
         <v>553</v>
-      </c>
-      <c r="J84" t="s">
-        <v>554</v>
       </c>
       <c r="K84" t="s">
         <v>323</v>
       </c>
       <c r="L84" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -14812,7 +14812,7 @@
         <v>375</v>
       </c>
       <c r="B85" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C85">
         <v>2017</v>
@@ -14830,7 +14830,7 @@
         <v>2015</v>
       </c>
       <c r="I85" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="J85">
         <v>40</v>
@@ -14865,7 +14865,7 @@
         <v>2013</v>
       </c>
       <c r="I86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J86">
         <v>37</v>
@@ -14874,15 +14874,15 @@
         <v>326</v>
       </c>
       <c r="L86" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B87" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C87">
         <v>2017</v>
@@ -14900,16 +14900,16 @@
         <v>2010</v>
       </c>
       <c r="I87" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J87">
         <v>56</v>
       </c>
       <c r="K87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L87" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -14917,7 +14917,7 @@
         <v>377</v>
       </c>
       <c r="B88" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C88">
         <v>2017</v>
@@ -14935,13 +14935,13 @@
         <v>2015</v>
       </c>
       <c r="I88" t="s">
+        <v>654</v>
+      </c>
+      <c r="J88" t="s">
         <v>655</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>656</v>
-      </c>
-      <c r="K88" t="s">
-        <v>657</v>
       </c>
       <c r="L88" t="s">
         <v>324</v>
@@ -14952,7 +14952,7 @@
         <v>308</v>
       </c>
       <c r="B89" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C89">
         <v>2017</v>
@@ -14970,16 +14970,16 @@
         <v>1962</v>
       </c>
       <c r="I89" t="s">
+        <v>718</v>
+      </c>
+      <c r="J89" t="s">
         <v>719</v>
-      </c>
-      <c r="J89" t="s">
-        <v>720</v>
       </c>
       <c r="K89" t="s">
         <v>326</v>
       </c>
       <c r="L89" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -15005,13 +15005,13 @@
         <v>2010</v>
       </c>
       <c r="I90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J90">
         <v>37</v>
       </c>
       <c r="K90" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L90" t="s">
         <v>324</v>
@@ -15022,7 +15022,7 @@
         <v>378</v>
       </c>
       <c r="B91" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C91">
         <v>2017</v>
@@ -15040,16 +15040,16 @@
         <v>2013</v>
       </c>
       <c r="I91" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="J91">
         <v>50</v>
       </c>
       <c r="K91" t="s">
+        <v>722</v>
+      </c>
+      <c r="L91" t="s">
         <v>723</v>
-      </c>
-      <c r="L91" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -15075,7 +15075,7 @@
         <v>2015</v>
       </c>
       <c r="I92" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J92">
         <v>28</v>
@@ -15092,7 +15092,7 @@
         <v>305</v>
       </c>
       <c r="B93" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C93">
         <v>2017</v>
@@ -15110,7 +15110,7 @@
         <v>1993</v>
       </c>
       <c r="I93" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J93">
         <v>49</v>
@@ -15145,10 +15145,10 @@
         <v>2011</v>
       </c>
       <c r="I94" t="s">
+        <v>725</v>
+      </c>
+      <c r="J94" t="s">
         <v>726</v>
-      </c>
-      <c r="J94" t="s">
-        <v>727</v>
       </c>
       <c r="K94" t="s">
         <v>323</v>
@@ -15162,7 +15162,7 @@
         <v>380</v>
       </c>
       <c r="B95" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C95">
         <v>2017</v>
@@ -15180,7 +15180,7 @@
         <v>2011</v>
       </c>
       <c r="I95" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J95">
         <v>73</v>
@@ -15197,7 +15197,7 @@
         <v>316</v>
       </c>
       <c r="B96" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C96">
         <v>2017</v>
@@ -15215,16 +15215,16 @@
         <v>2011</v>
       </c>
       <c r="I96" t="s">
+        <v>728</v>
+      </c>
+      <c r="J96" t="s">
         <v>729</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>730</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>731</v>
-      </c>
-      <c r="L96" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -15232,7 +15232,7 @@
         <v>381</v>
       </c>
       <c r="B97" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C97">
         <v>2017</v>
@@ -15250,16 +15250,16 @@
         <v>1989</v>
       </c>
       <c r="I97" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J97">
         <v>53</v>
       </c>
       <c r="K97" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="L97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -15267,7 +15267,7 @@
         <v>382</v>
       </c>
       <c r="B98" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C98">
         <v>2017</v>
@@ -15285,7 +15285,7 @@
         <v>2013</v>
       </c>
       <c r="I98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J98">
         <v>33</v>
@@ -15294,7 +15294,7 @@
         <v>333</v>
       </c>
       <c r="L98" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -15302,7 +15302,7 @@
         <v>383</v>
       </c>
       <c r="B99" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C99">
         <v>2017</v>
@@ -15320,16 +15320,16 @@
         <v>2016</v>
       </c>
       <c r="I99" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J99">
         <v>36</v>
       </c>
       <c r="K99" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L99" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -15337,7 +15337,7 @@
         <v>287</v>
       </c>
       <c r="B100" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C100">
         <v>2017</v>
@@ -15355,13 +15355,13 @@
         <v>2010</v>
       </c>
       <c r="I100" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J100">
         <v>49</v>
       </c>
       <c r="K100" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L100" t="s">
         <v>324</v>
@@ -15372,7 +15372,7 @@
         <v>384</v>
       </c>
       <c r="B101" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C101">
         <v>2017</v>
@@ -15390,16 +15390,16 @@
         <v>1955</v>
       </c>
       <c r="I101" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J101">
         <v>56</v>
       </c>
       <c r="K101" t="s">
+        <v>737</v>
+      </c>
+      <c r="L101" t="s">
         <v>738</v>
-      </c>
-      <c r="L101" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -15425,16 +15425,16 @@
         <v>2020</v>
       </c>
       <c r="I102" t="s">
+        <v>742</v>
+      </c>
+      <c r="J102" t="s">
         <v>743</v>
-      </c>
-      <c r="J102" t="s">
-        <v>744</v>
       </c>
       <c r="K102" t="s">
         <v>323</v>
       </c>
       <c r="L102" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -15460,16 +15460,16 @@
         <v>2019</v>
       </c>
       <c r="I103" t="s">
+        <v>744</v>
+      </c>
+      <c r="J103" t="s">
         <v>745</v>
-      </c>
-      <c r="J103" t="s">
-        <v>746</v>
       </c>
       <c r="K103" t="s">
         <v>323</v>
       </c>
       <c r="L103" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -15495,16 +15495,16 @@
         <v>2015</v>
       </c>
       <c r="I104" t="s">
+        <v>746</v>
+      </c>
+      <c r="J104" t="s">
         <v>747</v>
-      </c>
-      <c r="J104" t="s">
-        <v>748</v>
       </c>
       <c r="K104" t="s">
         <v>323</v>
       </c>
       <c r="L104" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -15530,16 +15530,16 @@
         <v>2020</v>
       </c>
       <c r="I105" t="s">
+        <v>749</v>
+      </c>
+      <c r="J105" t="s">
         <v>750</v>
-      </c>
-      <c r="J105" t="s">
-        <v>751</v>
       </c>
       <c r="K105" t="s">
         <v>323</v>
       </c>
       <c r="L105" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -15565,7 +15565,7 @@
         <v>2017</v>
       </c>
       <c r="I106" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J106">
         <v>35</v>
@@ -15574,7 +15574,7 @@
         <v>323</v>
       </c>
       <c r="L106" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -15600,7 +15600,7 @@
         <v>2013</v>
       </c>
       <c r="I107" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J107">
         <v>64</v>
@@ -15609,7 +15609,7 @@
         <v>323</v>
       </c>
       <c r="L107" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -15635,16 +15635,16 @@
         <v>2009</v>
       </c>
       <c r="I108" t="s">
+        <v>753</v>
+      </c>
+      <c r="J108" t="s">
         <v>754</v>
-      </c>
-      <c r="J108" t="s">
-        <v>755</v>
       </c>
       <c r="K108" t="s">
         <v>323</v>
       </c>
       <c r="L108" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -15652,7 +15652,7 @@
         <v>362</v>
       </c>
       <c r="B109" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C109">
         <v>2021</v>
@@ -15670,16 +15670,16 @@
         <v>2015</v>
       </c>
       <c r="I109" t="s">
+        <v>755</v>
+      </c>
+      <c r="J109" t="s">
         <v>756</v>
-      </c>
-      <c r="J109" t="s">
-        <v>757</v>
       </c>
       <c r="K109" t="s">
         <v>333</v>
       </c>
       <c r="M109" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
@@ -15687,7 +15687,7 @@
         <v>232</v>
       </c>
       <c r="B110" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C110">
         <v>2021</v>
@@ -15705,16 +15705,16 @@
         <v>2003</v>
       </c>
       <c r="I110" t="s">
+        <v>758</v>
+      </c>
+      <c r="J110" t="s">
         <v>759</v>
-      </c>
-      <c r="J110" t="s">
-        <v>760</v>
       </c>
       <c r="K110" t="s">
         <v>323</v>
       </c>
       <c r="L110" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
@@ -15740,16 +15740,16 @@
         <v>2018</v>
       </c>
       <c r="I111" t="s">
+        <v>760</v>
+      </c>
+      <c r="J111" t="s">
         <v>761</v>
-      </c>
-      <c r="J111" t="s">
-        <v>762</v>
       </c>
       <c r="K111" t="s">
         <v>323</v>
       </c>
       <c r="L111" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -15772,16 +15772,16 @@
         <v>2020</v>
       </c>
       <c r="I112" t="s">
+        <v>763</v>
+      </c>
+      <c r="J112" t="s">
         <v>764</v>
-      </c>
-      <c r="J112" t="s">
-        <v>765</v>
       </c>
       <c r="K112" t="s">
         <v>323</v>
       </c>
       <c r="L112" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -15804,16 +15804,16 @@
         <v>2021</v>
       </c>
       <c r="I113" t="s">
+        <v>765</v>
+      </c>
+      <c r="J113" t="s">
         <v>766</v>
-      </c>
-      <c r="J113" t="s">
-        <v>767</v>
       </c>
       <c r="K113" t="s">
         <v>331</v>
       </c>
       <c r="L113" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -15836,16 +15836,16 @@
         <v>2012</v>
       </c>
       <c r="I114" t="s">
+        <v>767</v>
+      </c>
+      <c r="J114" t="s">
         <v>768</v>
-      </c>
-      <c r="J114" t="s">
-        <v>769</v>
       </c>
       <c r="K114" t="s">
         <v>323</v>
       </c>
       <c r="L114" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -15868,16 +15868,16 @@
         <v>2012</v>
       </c>
       <c r="I115" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J115" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K115" t="s">
         <v>333</v>
       </c>
       <c r="L115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -15900,7 +15900,7 @@
         <v>2013</v>
       </c>
       <c r="I116" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J116">
         <v>40</v>
@@ -15909,7 +15909,7 @@
         <v>326</v>
       </c>
       <c r="L116" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -15917,7 +15917,7 @@
         <v>386</v>
       </c>
       <c r="B117" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C117">
         <v>2021</v>
@@ -15932,21 +15932,21 @@
         <v>2020</v>
       </c>
       <c r="I117" t="s">
+        <v>770</v>
+      </c>
+      <c r="J117" t="s">
         <v>771</v>
-      </c>
-      <c r="J117" t="s">
-        <v>772</v>
       </c>
       <c r="K117" t="s">
         <v>323</v>
       </c>
       <c r="L117" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>387</v>
+        <v>571</v>
       </c>
       <c r="B118" t="s">
         <v>134</v>
@@ -15964,24 +15964,24 @@
         <v>2018</v>
       </c>
       <c r="I118" t="s">
+        <v>772</v>
+      </c>
+      <c r="J118" t="s">
         <v>773</v>
       </c>
-      <c r="J118" t="s">
-        <v>774</v>
-      </c>
       <c r="K118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L118" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>290</v>
       </c>
       <c r="B119" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C119">
         <v>2021</v>
@@ -15996,24 +15996,24 @@
         <v>2008</v>
       </c>
       <c r="I119" t="s">
+        <v>917</v>
+      </c>
+      <c r="J119" t="s">
         <v>918</v>
-      </c>
-      <c r="J119" t="s">
-        <v>919</v>
       </c>
       <c r="K119" t="s">
         <v>323</v>
       </c>
       <c r="L119" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B120" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C120">
         <v>2021</v>
@@ -16028,16 +16028,16 @@
         <v>2015</v>
       </c>
       <c r="I120" t="s">
+        <v>919</v>
+      </c>
+      <c r="J120" t="s">
         <v>920</v>
-      </c>
-      <c r="J120" t="s">
-        <v>921</v>
       </c>
       <c r="K120" t="s">
         <v>323</v>
       </c>
       <c r="L120" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -16045,7 +16045,7 @@
         <v>384</v>
       </c>
       <c r="B121" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C121">
         <v>2021</v>
@@ -16060,7 +16060,7 @@
         <v>1955</v>
       </c>
       <c r="I121" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J121">
         <v>61</v>
@@ -16069,15 +16069,15 @@
         <v>326</v>
       </c>
       <c r="L121" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C122">
         <v>2021</v>
@@ -16092,7 +16092,7 @@
         <v>2020</v>
       </c>
       <c r="I122" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="J122">
         <v>36</v>
@@ -16101,12 +16101,12 @@
         <v>323</v>
       </c>
       <c r="L122" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B123" t="s">
         <v>126</v>
@@ -16124,16 +16124,16 @@
         <v>2013</v>
       </c>
       <c r="I123" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="J123">
         <v>51</v>
       </c>
       <c r="K123" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L123" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -16156,21 +16156,21 @@
         <v>1985</v>
       </c>
       <c r="I124" t="s">
+        <v>779</v>
+      </c>
+      <c r="J124" t="s">
         <v>780</v>
       </c>
-      <c r="J124" t="s">
-        <v>781</v>
-      </c>
       <c r="K124" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="L124" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -16188,24 +16188,24 @@
         <v>2019</v>
       </c>
       <c r="I125" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J125" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K125" t="s">
         <v>323</v>
       </c>
       <c r="L125" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B126" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C126">
         <v>2021</v>
@@ -16220,7 +16220,7 @@
         <v>2015</v>
       </c>
       <c r="I126" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J126">
         <v>45</v>
@@ -16229,12 +16229,12 @@
         <v>323</v>
       </c>
       <c r="L126" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B127" t="s">
         <v>130</v>
@@ -16252,21 +16252,21 @@
         <v>2019</v>
       </c>
       <c r="I127" t="s">
+        <v>923</v>
+      </c>
+      <c r="J127" t="s">
         <v>924</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>925</v>
       </c>
-      <c r="K127" t="s">
-        <v>926</v>
-      </c>
       <c r="L127" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s">
         <v>130</v>
@@ -16284,7 +16284,7 @@
         <v>2019</v>
       </c>
       <c r="I128" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J128">
         <v>44</v>
@@ -16293,15 +16293,15 @@
         <v>331</v>
       </c>
       <c r="L128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B129" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C129">
         <v>2021</v>
@@ -16316,16 +16316,16 @@
         <v>2018</v>
       </c>
       <c r="I129" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J129">
         <v>49</v>
       </c>
       <c r="K129" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L129" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -16333,7 +16333,7 @@
         <v>312</v>
       </c>
       <c r="B130" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C130">
         <v>2021</v>
@@ -16348,16 +16348,16 @@
         <v>2014</v>
       </c>
       <c r="I130" t="s">
+        <v>928</v>
+      </c>
+      <c r="J130" t="s">
         <v>929</v>
       </c>
-      <c r="J130" t="s">
-        <v>930</v>
-      </c>
       <c r="K130" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L130" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -16365,7 +16365,7 @@
         <v>377</v>
       </c>
       <c r="B131" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C131">
         <v>2021</v>
@@ -16380,13 +16380,13 @@
         <v>2015</v>
       </c>
       <c r="I131" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J131" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K131" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L131" t="s">
         <v>324</v>
@@ -16397,7 +16397,7 @@
         <v>168</v>
       </c>
       <c r="B132" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C132">
         <v>2021</v>
@@ -16412,21 +16412,21 @@
         <v>2019</v>
       </c>
       <c r="I132" t="s">
+        <v>787</v>
+      </c>
+      <c r="J132" t="s">
         <v>788</v>
       </c>
-      <c r="J132" t="s">
-        <v>789</v>
-      </c>
       <c r="K132" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L132" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B133" t="s">
         <v>127</v>
@@ -16444,24 +16444,24 @@
         <v>2021</v>
       </c>
       <c r="I133" t="s">
+        <v>931</v>
+      </c>
+      <c r="J133" t="s">
         <v>932</v>
-      </c>
-      <c r="J133" t="s">
-        <v>933</v>
       </c>
       <c r="K133" t="s">
         <v>333</v>
       </c>
       <c r="L133" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B134" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C134">
         <v>2021</v>
@@ -16476,7 +16476,7 @@
         <v>2018</v>
       </c>
       <c r="I134" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J134">
         <v>40</v>
@@ -16485,7 +16485,7 @@
         <v>333</v>
       </c>
       <c r="L134" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -16493,7 +16493,7 @@
         <v>181</v>
       </c>
       <c r="B135" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C135">
         <v>2021</v>
@@ -16508,7 +16508,7 @@
         <v>2017</v>
       </c>
       <c r="I135" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="J135">
         <v>35</v>
@@ -16517,15 +16517,15 @@
         <v>333</v>
       </c>
       <c r="L135" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B136" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C136">
         <v>2021</v>
@@ -16540,24 +16540,24 @@
         <v>2017</v>
       </c>
       <c r="I136" t="s">
+        <v>936</v>
+      </c>
+      <c r="J136" t="s">
         <v>937</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
         <v>938</v>
       </c>
-      <c r="K136" t="s">
-        <v>939</v>
-      </c>
       <c r="L136" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B137" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C137">
         <v>2021</v>
@@ -16572,7 +16572,7 @@
         <v>2017</v>
       </c>
       <c r="I137" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="J137">
         <v>32</v>
@@ -16581,7 +16581,7 @@
         <v>333</v>
       </c>
       <c r="L137" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -16604,24 +16604,24 @@
         <v>2013</v>
       </c>
       <c r="I138" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J138" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="K138" t="s">
+        <v>526</v>
+      </c>
+      <c r="L138" t="s">
         <v>527</v>
-      </c>
-      <c r="L138" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B139" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C139">
         <v>2021</v>
@@ -16636,24 +16636,24 @@
         <v>2017</v>
       </c>
       <c r="I139" t="s">
+        <v>942</v>
+      </c>
+      <c r="J139" t="s">
         <v>943</v>
-      </c>
-      <c r="J139" t="s">
-        <v>944</v>
       </c>
       <c r="K139" t="s">
         <v>333</v>
       </c>
       <c r="L139" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B140" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C140">
         <v>2021</v>
@@ -16668,7 +16668,7 @@
         <v>2019</v>
       </c>
       <c r="I140" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J140">
         <v>29</v>
@@ -16677,15 +16677,15 @@
         <v>323</v>
       </c>
       <c r="L140" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B141" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C141">
         <v>2021</v>
@@ -16700,16 +16700,16 @@
         <v>2018</v>
       </c>
       <c r="I141" t="s">
+        <v>945</v>
+      </c>
+      <c r="J141" t="s">
         <v>946</v>
-      </c>
-      <c r="J141" t="s">
-        <v>947</v>
       </c>
       <c r="K141" t="s">
         <v>333</v>
       </c>
       <c r="L141" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -16732,7 +16732,7 @@
         <v>2016</v>
       </c>
       <c r="I142" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J142">
         <v>36</v>
@@ -16741,7 +16741,7 @@
         <v>323</v>
       </c>
       <c r="L142" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -16764,16 +16764,16 @@
         <v>2021</v>
       </c>
       <c r="I143" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J143">
         <v>32</v>
       </c>
       <c r="K143" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L143" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -16781,7 +16781,7 @@
         <v>353</v>
       </c>
       <c r="B144" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C144">
         <v>2021</v>
@@ -16796,16 +16796,16 @@
         <v>2007</v>
       </c>
       <c r="I144" t="s">
+        <v>947</v>
+      </c>
+      <c r="J144" t="s">
         <v>948</v>
-      </c>
-      <c r="J144" t="s">
-        <v>949</v>
       </c>
       <c r="K144" t="s">
         <v>323</v>
       </c>
       <c r="L144" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -16828,16 +16828,16 @@
         <v>2011</v>
       </c>
       <c r="I145" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J145">
         <v>42</v>
       </c>
       <c r="K145" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="L145" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -16845,7 +16845,7 @@
         <v>285</v>
       </c>
       <c r="B146" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C146">
         <v>2021</v>
@@ -16869,7 +16869,7 @@
         <v>323</v>
       </c>
       <c r="L146" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -16892,16 +16892,16 @@
         <v>2015</v>
       </c>
       <c r="I147" t="s">
+        <v>949</v>
+      </c>
+      <c r="J147" t="s">
         <v>950</v>
-      </c>
-      <c r="J147" t="s">
-        <v>951</v>
       </c>
       <c r="K147" t="s">
         <v>323</v>
       </c>
       <c r="L147" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -16909,7 +16909,7 @@
         <v>357</v>
       </c>
       <c r="B148" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C148">
         <v>2021</v>
@@ -16924,24 +16924,24 @@
         <v>1960</v>
       </c>
       <c r="I148" t="s">
+        <v>951</v>
+      </c>
+      <c r="J148" t="s">
         <v>952</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>953</v>
       </c>
-      <c r="K148" t="s">
-        <v>954</v>
-      </c>
       <c r="L148" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B149" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C149">
         <v>2021</v>
@@ -16956,24 +16956,24 @@
         <v>2017</v>
       </c>
       <c r="I149" t="s">
+        <v>954</v>
+      </c>
+      <c r="J149" t="s">
         <v>955</v>
-      </c>
-      <c r="J149" t="s">
-        <v>956</v>
       </c>
       <c r="K149" t="s">
         <v>323</v>
       </c>
       <c r="L149" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B150" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C150">
         <v>2021</v>
@@ -16988,24 +16988,24 @@
         <v>2019</v>
       </c>
       <c r="I150" t="s">
+        <v>956</v>
+      </c>
+      <c r="J150" t="s">
         <v>957</v>
-      </c>
-      <c r="J150" t="s">
-        <v>958</v>
       </c>
       <c r="K150" t="s">
         <v>323</v>
       </c>
       <c r="L150" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B151" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C151">
         <v>2021</v>
@@ -17020,21 +17020,21 @@
         <v>2018</v>
       </c>
       <c r="I151" t="s">
+        <v>958</v>
+      </c>
+      <c r="J151" t="s">
         <v>959</v>
-      </c>
-      <c r="J151" t="s">
-        <v>960</v>
       </c>
       <c r="K151" t="s">
         <v>323</v>
       </c>
       <c r="L151" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B152" t="s">
         <v>131</v>
@@ -17043,7 +17043,7 @@
         <v>2023</v>
       </c>
       <c r="D152" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E152" t="s">
         <v>281</v>
@@ -17052,7 +17052,7 @@
         <v>2018</v>
       </c>
       <c r="I152" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -17066,7 +17066,7 @@
         <v>2023</v>
       </c>
       <c r="D153" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E153" t="s">
         <v>281</v>
@@ -17075,7 +17075,7 @@
         <v>2021</v>
       </c>
       <c r="I153" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -17089,7 +17089,7 @@
         <v>2023</v>
       </c>
       <c r="D154" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E154" t="s">
         <v>281</v>
@@ -17098,7 +17098,7 @@
         <v>2022</v>
       </c>
       <c r="I154" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -17112,7 +17112,7 @@
         <v>2023</v>
       </c>
       <c r="D155" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E155" t="s">
         <v>281</v>
@@ -17121,12 +17121,12 @@
         <v>2022</v>
       </c>
       <c r="I155" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B156" t="s">
         <v>126</v>
@@ -17135,7 +17135,7 @@
         <v>2023</v>
       </c>
       <c r="D156" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E156" t="s">
         <v>281</v>
@@ -17144,21 +17144,21 @@
         <v>2022</v>
       </c>
       <c r="I156" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B157" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C157">
         <v>2023</v>
       </c>
       <c r="D157" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E157" t="s">
         <v>281</v>
@@ -17167,21 +17167,21 @@
         <v>2022</v>
       </c>
       <c r="I157" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B158" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C158">
         <v>2023</v>
       </c>
       <c r="D158" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E158" t="s">
         <v>281</v>
@@ -17190,21 +17190,21 @@
         <v>2022</v>
       </c>
       <c r="I158" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B159" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C159">
         <v>2023</v>
       </c>
       <c r="D159" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E159" t="s">
         <v>281</v>
@@ -17213,21 +17213,21 @@
         <v>2021</v>
       </c>
       <c r="I159" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B160" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C160">
         <v>2023</v>
       </c>
       <c r="D160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E160" t="s">
         <v>281</v>
@@ -17236,21 +17236,21 @@
         <v>2023</v>
       </c>
       <c r="I160" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B161" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C161">
         <v>2023</v>
       </c>
       <c r="D161" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E161" t="s">
         <v>281</v>
@@ -17259,21 +17259,21 @@
         <v>2022</v>
       </c>
       <c r="I161" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B162" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C162">
         <v>2023</v>
       </c>
       <c r="D162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E162" t="s">
         <v>281</v>
@@ -17282,7 +17282,7 @@
         <v>2021</v>
       </c>
       <c r="I162" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -17296,7 +17296,7 @@
         <v>2023</v>
       </c>
       <c r="D163" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E163" t="s">
         <v>281</v>
@@ -17305,12 +17305,12 @@
         <v>2022</v>
       </c>
       <c r="I163" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B164" t="s">
         <v>127</v>
@@ -17319,7 +17319,7 @@
         <v>2023</v>
       </c>
       <c r="D164" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E164" t="s">
         <v>281</v>
@@ -17328,7 +17328,7 @@
         <v>2021</v>
       </c>
       <c r="I164" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -17342,7 +17342,7 @@
         <v>2023</v>
       </c>
       <c r="D165" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E165" t="s">
         <v>281</v>
@@ -17351,21 +17351,21 @@
         <v>2023</v>
       </c>
       <c r="I165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B166" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C166">
         <v>2023</v>
       </c>
       <c r="D166" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E166" t="s">
         <v>281</v>
@@ -17374,21 +17374,21 @@
         <v>2021</v>
       </c>
       <c r="I166" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B167" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C167">
         <v>2023</v>
       </c>
       <c r="D167" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E167" t="s">
         <v>281</v>
@@ -17397,21 +17397,21 @@
         <v>2019</v>
       </c>
       <c r="I167" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B168" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C168">
         <v>2023</v>
       </c>
       <c r="D168" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E168" t="s">
         <v>281</v>
@@ -17420,21 +17420,21 @@
         <v>2019</v>
       </c>
       <c r="I168" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B169" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C169">
         <v>2023</v>
       </c>
       <c r="D169" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E169" t="s">
         <v>281</v>
@@ -17443,21 +17443,21 @@
         <v>2019</v>
       </c>
       <c r="I169" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B170" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C170">
         <v>2023</v>
       </c>
       <c r="D170" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E170" t="s">
         <v>281</v>
@@ -17466,12 +17466,12 @@
         <v>2019</v>
       </c>
       <c r="I170" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B171" t="s">
         <v>128</v>
@@ -17480,7 +17480,7 @@
         <v>2023</v>
       </c>
       <c r="D171" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E171" t="s">
         <v>281</v>
@@ -17489,21 +17489,21 @@
         <v>2022</v>
       </c>
       <c r="I171" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B172" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C172">
         <v>2023</v>
       </c>
       <c r="D172" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E172" t="s">
         <v>281</v>
@@ -17512,7 +17512,7 @@
         <v>2017</v>
       </c>
       <c r="I172" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -17526,7 +17526,7 @@
         <v>2023</v>
       </c>
       <c r="D173" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E173" t="s">
         <v>281</v>
@@ -17535,21 +17535,21 @@
         <v>2021</v>
       </c>
       <c r="I173" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B174" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C174">
         <v>2023</v>
       </c>
       <c r="D174" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E174" t="s">
         <v>281</v>
@@ -17558,21 +17558,21 @@
         <v>2022</v>
       </c>
       <c r="I174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B175" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C175">
         <v>2023</v>
       </c>
       <c r="D175" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E175" t="s">
         <v>281</v>
@@ -17581,21 +17581,21 @@
         <v>2022</v>
       </c>
       <c r="I175" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B176" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C176">
         <v>2023</v>
       </c>
       <c r="D176" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E176" t="s">
         <v>281</v>
@@ -17604,7 +17604,7 @@
         <v>2021</v>
       </c>
       <c r="I176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -17656,7 +17656,7 @@
         <v>281</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D2">
         <v>2024</v>
@@ -17665,7 +17665,7 @@
         <v>185</v>
       </c>
       <c r="F2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -17676,7 +17676,7 @@
         <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D3">
         <v>2024</v>
@@ -17685,7 +17685,7 @@
         <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -17696,13 +17696,13 @@
         <v>281</v>
       </c>
       <c r="C4" t="s">
+        <v>557</v>
+      </c>
+      <c r="D4">
+        <v>2024</v>
+      </c>
+      <c r="E4" t="s">
         <v>558</v>
-      </c>
-      <c r="D4">
-        <v>2024</v>
-      </c>
-      <c r="E4" t="s">
-        <v>559</v>
       </c>
       <c r="F4" t="s">
         <v>127</v>
@@ -17716,7 +17716,7 @@
         <v>281</v>
       </c>
       <c r="C5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D5">
         <v>2024</v>
@@ -17736,16 +17736,16 @@
         <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D6">
         <v>2024</v>
       </c>
       <c r="E6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -17756,16 +17756,16 @@
         <v>281</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D7">
         <v>2024</v>
       </c>
       <c r="E7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F7" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -17776,13 +17776,13 @@
         <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D8">
         <v>2024</v>
       </c>
       <c r="E8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F8" t="s">
         <v>127</v>
@@ -17796,13 +17796,13 @@
         <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D9">
         <v>2024</v>
       </c>
       <c r="E9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F9" t="s">
         <v>128</v>
@@ -17816,13 +17816,13 @@
         <v>281</v>
       </c>
       <c r="C10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D10">
         <v>2024</v>
       </c>
       <c r="E10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F10" t="s">
         <v>126</v>
@@ -17836,7 +17836,7 @@
         <v>281</v>
       </c>
       <c r="C11" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D11">
         <v>2024</v>
@@ -17853,16 +17853,16 @@
         <v>281</v>
       </c>
       <c r="C12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D12">
         <v>2024</v>
       </c>
       <c r="E12" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -17870,16 +17870,16 @@
         <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D13">
         <v>2024</v>
       </c>
       <c r="E13" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -17887,16 +17887,16 @@
         <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D14">
         <v>2024</v>
       </c>
       <c r="E14" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -17904,7 +17904,7 @@
         <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D15">
         <v>2024</v>
@@ -17921,7 +17921,7 @@
         <v>281</v>
       </c>
       <c r="C16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D16">
         <v>2024</v>
@@ -17938,7 +17938,7 @@
         <v>281</v>
       </c>
       <c r="C17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D17">
         <v>2024</v>
@@ -17955,13 +17955,13 @@
         <v>281</v>
       </c>
       <c r="C18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D18">
         <v>2024</v>
       </c>
       <c r="E18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F18" t="s">
         <v>124</v>
@@ -17972,13 +17972,13 @@
         <v>281</v>
       </c>
       <c r="C19" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D19">
         <v>2024</v>
       </c>
       <c r="E19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -17989,7 +17989,7 @@
         <v>281</v>
       </c>
       <c r="C20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D20">
         <v>2024</v>
@@ -18006,13 +18006,13 @@
         <v>281</v>
       </c>
       <c r="C21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D21">
         <v>2024</v>
       </c>
       <c r="E21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F21" t="s">
         <v>124</v>
@@ -18023,16 +18023,16 @@
         <v>281</v>
       </c>
       <c r="C22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D22">
         <v>2024</v>
       </c>
       <c r="E22" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
@@ -18040,7 +18040,7 @@
         <v>281</v>
       </c>
       <c r="C23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D23">
         <v>2024</v>
@@ -18049,7 +18049,7 @@
         <v>384</v>
       </c>
       <c r="F23" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
@@ -18057,16 +18057,16 @@
         <v>281</v>
       </c>
       <c r="C24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D24">
         <v>2024</v>
       </c>
       <c r="E24" t="s">
+        <v>667</v>
+      </c>
+      <c r="F24" t="s">
         <v>668</v>
-      </c>
-      <c r="F24" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
@@ -18074,13 +18074,13 @@
         <v>281</v>
       </c>
       <c r="C25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D25">
         <v>2024</v>
       </c>
       <c r="E25" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F25" t="s">
         <v>126</v>
@@ -18091,7 +18091,7 @@
         <v>281</v>
       </c>
       <c r="C26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D26">
         <v>2024</v>
@@ -18108,7 +18108,7 @@
         <v>281</v>
       </c>
       <c r="C27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D27">
         <v>2024</v>
@@ -18125,16 +18125,16 @@
         <v>281</v>
       </c>
       <c r="C28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D28">
         <v>2024</v>
       </c>
       <c r="E28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
@@ -18142,13 +18142,13 @@
         <v>281</v>
       </c>
       <c r="C29" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D29">
         <v>2024</v>
       </c>
       <c r="E29" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F29" t="s">
         <v>130</v>
@@ -18159,7 +18159,7 @@
         <v>281</v>
       </c>
       <c r="C30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D30">
         <v>2024</v>
@@ -18168,7 +18168,7 @@
         <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
@@ -18176,16 +18176,16 @@
         <v>281</v>
       </c>
       <c r="C31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D31">
         <v>2024</v>
       </c>
       <c r="E31" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
@@ -18193,13 +18193,13 @@
         <v>281</v>
       </c>
       <c r="C32" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D32">
         <v>2024</v>
       </c>
       <c r="E32" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F32" t="s">
         <v>127</v>
@@ -18210,13 +18210,13 @@
         <v>281</v>
       </c>
       <c r="C33" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D33">
         <v>2024</v>
       </c>
       <c r="E33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F33" t="s">
         <v>127</v>
@@ -18227,13 +18227,13 @@
         <v>281</v>
       </c>
       <c r="C34" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D34">
         <v>2024</v>
       </c>
       <c r="E34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F34" t="s">
         <v>127</v>
@@ -18244,16 +18244,16 @@
         <v>281</v>
       </c>
       <c r="C35" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D35">
         <v>2024</v>
       </c>
       <c r="E35" t="s">
+        <v>681</v>
+      </c>
+      <c r="F35" t="s">
         <v>682</v>
-      </c>
-      <c r="F35" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
@@ -18261,13 +18261,13 @@
         <v>281</v>
       </c>
       <c r="C36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D36">
         <v>2024</v>
       </c>
       <c r="E36" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.2">
@@ -18275,16 +18275,16 @@
         <v>281</v>
       </c>
       <c r="C37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D37">
         <v>2024</v>
       </c>
       <c r="E37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.2">
@@ -18292,16 +18292,16 @@
         <v>281</v>
       </c>
       <c r="C38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D38">
         <v>2024</v>
       </c>
       <c r="E38" t="s">
+        <v>686</v>
+      </c>
+      <c r="F38" t="s">
         <v>687</v>
-      </c>
-      <c r="F38" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.2">
@@ -18309,16 +18309,16 @@
         <v>281</v>
       </c>
       <c r="C39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D39">
         <v>2024</v>
       </c>
       <c r="E39" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.2">
@@ -18326,16 +18326,16 @@
         <v>281</v>
       </c>
       <c r="C40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D40">
         <v>2024</v>
       </c>
       <c r="E40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.2">
@@ -18343,16 +18343,16 @@
         <v>281</v>
       </c>
       <c r="C41" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D41">
         <v>2024</v>
       </c>
       <c r="E41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.2">
@@ -18360,13 +18360,13 @@
         <v>281</v>
       </c>
       <c r="C42" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D42">
         <v>2024</v>
       </c>
       <c r="E42" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F42" t="s">
         <v>128</v>
@@ -18377,13 +18377,13 @@
         <v>281</v>
       </c>
       <c r="C43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F43" t="s">
         <v>128</v>
@@ -18394,13 +18394,13 @@
         <v>281</v>
       </c>
       <c r="C44" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F44" t="s">
         <v>128</v>
@@ -18411,7 +18411,7 @@
         <v>281</v>
       </c>
       <c r="C45" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -18428,13 +18428,13 @@
         <v>281</v>
       </c>
       <c r="C46" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F46" t="s">
         <v>128</v>
@@ -18445,13 +18445,13 @@
         <v>281</v>
       </c>
       <c r="C47" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D47">
         <v>2024</v>
       </c>
       <c r="E47" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F47" t="s">
         <v>128</v>
@@ -18462,13 +18462,13 @@
         <v>281</v>
       </c>
       <c r="C48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D48">
         <v>2024</v>
       </c>
       <c r="E48" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F48" t="s">
         <v>128</v>
@@ -18479,13 +18479,13 @@
         <v>281</v>
       </c>
       <c r="C49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D49">
         <v>2024</v>
       </c>
       <c r="E49" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F49" t="s">
         <v>128</v>
@@ -18496,13 +18496,13 @@
         <v>281</v>
       </c>
       <c r="C50" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D50">
         <v>2024</v>
       </c>
       <c r="E50" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F50" t="s">
         <v>128</v>
@@ -18513,16 +18513,16 @@
         <v>281</v>
       </c>
       <c r="C51" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D51">
         <v>2024</v>
       </c>
       <c r="E51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F51" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.2">
@@ -18530,16 +18530,16 @@
         <v>281</v>
       </c>
       <c r="C52" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D52">
         <v>2024</v>
       </c>
       <c r="E52" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F52" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.2">
@@ -18547,16 +18547,16 @@
         <v>281</v>
       </c>
       <c r="C53" t="s">
+        <v>704</v>
+      </c>
+      <c r="D53">
+        <v>2024</v>
+      </c>
+      <c r="E53" t="s">
         <v>705</v>
       </c>
-      <c r="D53">
-        <v>2024</v>
-      </c>
-      <c r="E53" t="s">
-        <v>706</v>
-      </c>
       <c r="F53" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.2">
@@ -18564,7 +18564,7 @@
         <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D54">
         <v>2024</v>
@@ -18581,16 +18581,16 @@
         <v>281</v>
       </c>
       <c r="C55" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D55">
         <v>2024</v>
       </c>
       <c r="E55" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F55" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.2">
@@ -18598,16 +18598,16 @@
         <v>281</v>
       </c>
       <c r="C56" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D56">
         <v>2024</v>
       </c>
       <c r="E56" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F56" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.2">
@@ -18615,13 +18615,13 @@
         <v>281</v>
       </c>
       <c r="C57" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D57">
         <v>2024</v>
       </c>
       <c r="E57" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F57" t="s">
         <v>127</v>
@@ -18632,13 +18632,13 @@
         <v>281</v>
       </c>
       <c r="C58" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D58">
         <v>2024</v>
       </c>
       <c r="E58" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F58" t="s">
         <v>127</v>
@@ -18649,13 +18649,13 @@
         <v>281</v>
       </c>
       <c r="C59" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D59">
         <v>2024</v>
       </c>
       <c r="E59" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F59" t="s">
         <v>127</v>
@@ -18666,16 +18666,16 @@
         <v>281</v>
       </c>
       <c r="C60" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D60">
         <v>2024</v>
       </c>
       <c r="E60" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F60" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.2">
@@ -18683,13 +18683,13 @@
         <v>281</v>
       </c>
       <c r="C61" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D61">
         <v>2024</v>
       </c>
       <c r="E61" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F61" t="s">
         <v>128</v>
@@ -18700,13 +18700,13 @@
         <v>281</v>
       </c>
       <c r="C62" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D62">
         <v>2024</v>
       </c>
       <c r="E62" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F62" t="s">
         <v>128</v>
@@ -18717,16 +18717,16 @@
         <v>281</v>
       </c>
       <c r="C63" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D63">
         <v>2024</v>
       </c>
       <c r="E63" t="s">
+        <v>716</v>
+      </c>
+      <c r="F63" t="s">
         <v>717</v>
-      </c>
-      <c r="F63" t="s">
-        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -18769,82 +18769,82 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B2">
         <v>2022</v>
       </c>
       <c r="C2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D2" t="s">
         <v>566</v>
-      </c>
-      <c r="D2" t="s">
-        <v>567</v>
       </c>
       <c r="E2">
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B3">
         <v>2022</v>
       </c>
       <c r="C3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D3" t="s">
         <v>566</v>
-      </c>
-      <c r="D3" t="s">
-        <v>567</v>
       </c>
       <c r="E3">
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B4">
         <v>2022</v>
       </c>
       <c r="C4" t="s">
+        <v>565</v>
+      </c>
+      <c r="D4" t="s">
         <v>566</v>
-      </c>
-      <c r="D4" t="s">
-        <v>567</v>
       </c>
       <c r="E4">
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B5">
         <v>2022</v>
       </c>
       <c r="C5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D5" t="s">
         <v>566</v>
-      </c>
-      <c r="D5" t="s">
-        <v>567</v>
       </c>
       <c r="E5">
         <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -18855,16 +18855,16 @@
         <v>2022</v>
       </c>
       <c r="C6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" t="s">
         <v>566</v>
-      </c>
-      <c r="D6" t="s">
-        <v>567</v>
       </c>
       <c r="E6">
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -18875,116 +18875,116 @@
         <v>2022</v>
       </c>
       <c r="C7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" t="s">
         <v>566</v>
-      </c>
-      <c r="D7" t="s">
-        <v>567</v>
       </c>
       <c r="E7">
         <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B8">
         <v>2022</v>
       </c>
       <c r="C8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" t="s">
         <v>566</v>
-      </c>
-      <c r="D8" t="s">
-        <v>567</v>
       </c>
       <c r="E8">
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9">
         <v>2022</v>
       </c>
       <c r="C9" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" t="s">
         <v>566</v>
-      </c>
-      <c r="D9" t="s">
-        <v>567</v>
       </c>
       <c r="E9">
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B10">
         <v>2022</v>
       </c>
       <c r="C10" t="s">
+        <v>565</v>
+      </c>
+      <c r="D10" t="s">
         <v>566</v>
-      </c>
-      <c r="D10" t="s">
-        <v>567</v>
       </c>
       <c r="E10">
         <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B11">
         <v>2022</v>
       </c>
       <c r="C11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" t="s">
         <v>566</v>
-      </c>
-      <c r="D11" t="s">
-        <v>567</v>
       </c>
       <c r="E11">
         <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B12">
         <v>2022</v>
       </c>
       <c r="C12" t="s">
+        <v>565</v>
+      </c>
+      <c r="D12" t="s">
         <v>566</v>
-      </c>
-      <c r="D12" t="s">
-        <v>567</v>
       </c>
       <c r="E12">
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -18995,96 +18995,96 @@
         <v>2022</v>
       </c>
       <c r="C13" t="s">
+        <v>565</v>
+      </c>
+      <c r="D13" t="s">
         <v>566</v>
-      </c>
-      <c r="D13" t="s">
-        <v>567</v>
       </c>
       <c r="E13">
         <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B14">
         <v>2022</v>
       </c>
       <c r="C14" t="s">
+        <v>565</v>
+      </c>
+      <c r="D14" t="s">
         <v>566</v>
-      </c>
-      <c r="D14" t="s">
-        <v>567</v>
       </c>
       <c r="E14">
         <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B15">
         <v>2022</v>
       </c>
       <c r="C15" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" t="s">
         <v>566</v>
-      </c>
-      <c r="D15" t="s">
-        <v>567</v>
       </c>
       <c r="E15">
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B16">
         <v>2022</v>
       </c>
       <c r="C16" t="s">
+        <v>565</v>
+      </c>
+      <c r="D16" t="s">
         <v>566</v>
-      </c>
-      <c r="D16" t="s">
-        <v>567</v>
       </c>
       <c r="E16">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B17">
         <v>2022</v>
       </c>
       <c r="C17" t="s">
+        <v>565</v>
+      </c>
+      <c r="D17" t="s">
         <v>566</v>
-      </c>
-      <c r="D17" t="s">
-        <v>567</v>
       </c>
       <c r="E17">
         <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -19095,156 +19095,156 @@
         <v>2022</v>
       </c>
       <c r="C18" t="s">
+        <v>565</v>
+      </c>
+      <c r="D18" t="s">
         <v>566</v>
-      </c>
-      <c r="D18" t="s">
-        <v>567</v>
       </c>
       <c r="E18">
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B19">
         <v>2022</v>
       </c>
       <c r="C19" t="s">
+        <v>565</v>
+      </c>
+      <c r="D19" t="s">
         <v>566</v>
-      </c>
-      <c r="D19" t="s">
-        <v>567</v>
       </c>
       <c r="E19">
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B20">
         <v>2022</v>
       </c>
       <c r="C20" t="s">
+        <v>565</v>
+      </c>
+      <c r="D20" t="s">
         <v>566</v>
-      </c>
-      <c r="D20" t="s">
-        <v>567</v>
       </c>
       <c r="E20">
         <v>32</v>
       </c>
       <c r="F20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B21">
         <v>2022</v>
       </c>
       <c r="C21" t="s">
+        <v>565</v>
+      </c>
+      <c r="D21" t="s">
         <v>566</v>
-      </c>
-      <c r="D21" t="s">
-        <v>567</v>
       </c>
       <c r="E21">
         <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B22">
         <v>2022</v>
       </c>
       <c r="C22" t="s">
+        <v>565</v>
+      </c>
+      <c r="D22" t="s">
         <v>566</v>
-      </c>
-      <c r="D22" t="s">
-        <v>567</v>
       </c>
       <c r="E22">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B23">
         <v>2022</v>
       </c>
       <c r="C23" t="s">
+        <v>565</v>
+      </c>
+      <c r="D23" t="s">
         <v>566</v>
-      </c>
-      <c r="D23" t="s">
-        <v>567</v>
       </c>
       <c r="E23">
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B24">
         <v>2022</v>
       </c>
       <c r="C24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" t="s">
         <v>566</v>
-      </c>
-      <c r="D24" t="s">
-        <v>567</v>
       </c>
       <c r="E24">
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B25">
         <v>2022</v>
       </c>
       <c r="C25" t="s">
+        <v>565</v>
+      </c>
+      <c r="D25" t="s">
         <v>566</v>
-      </c>
-      <c r="D25" t="s">
-        <v>567</v>
       </c>
       <c r="E25">
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -19255,256 +19255,256 @@
         <v>2022</v>
       </c>
       <c r="C26" t="s">
+        <v>565</v>
+      </c>
+      <c r="D26" t="s">
         <v>566</v>
-      </c>
-      <c r="D26" t="s">
-        <v>567</v>
       </c>
       <c r="E26">
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B27">
         <v>2022</v>
       </c>
       <c r="C27" t="s">
+        <v>565</v>
+      </c>
+      <c r="D27" t="s">
         <v>566</v>
-      </c>
-      <c r="D27" t="s">
-        <v>567</v>
       </c>
       <c r="E27">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B28">
         <v>2022</v>
       </c>
       <c r="C28" t="s">
+        <v>565</v>
+      </c>
+      <c r="D28" t="s">
         <v>566</v>
-      </c>
-      <c r="D28" t="s">
-        <v>567</v>
       </c>
       <c r="E28">
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B29">
         <v>2022</v>
       </c>
       <c r="C29" t="s">
+        <v>565</v>
+      </c>
+      <c r="D29" t="s">
         <v>566</v>
-      </c>
-      <c r="D29" t="s">
-        <v>567</v>
       </c>
       <c r="E29">
         <v>23</v>
       </c>
       <c r="F29" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B30">
         <v>2022</v>
       </c>
       <c r="C30" t="s">
+        <v>565</v>
+      </c>
+      <c r="D30" t="s">
         <v>566</v>
-      </c>
-      <c r="D30" t="s">
-        <v>567</v>
       </c>
       <c r="E30">
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B31">
         <v>2022</v>
       </c>
       <c r="C31" t="s">
+        <v>565</v>
+      </c>
+      <c r="D31" t="s">
         <v>566</v>
-      </c>
-      <c r="D31" t="s">
-        <v>567</v>
       </c>
       <c r="E31">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B32">
         <v>2022</v>
       </c>
       <c r="C32" t="s">
+        <v>565</v>
+      </c>
+      <c r="D32" t="s">
         <v>566</v>
-      </c>
-      <c r="D32" t="s">
-        <v>567</v>
       </c>
       <c r="E32">
         <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B33">
         <v>2022</v>
       </c>
       <c r="C33" t="s">
+        <v>565</v>
+      </c>
+      <c r="D33" t="s">
         <v>566</v>
-      </c>
-      <c r="D33" t="s">
-        <v>567</v>
       </c>
       <c r="E33">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B34">
         <v>2022</v>
       </c>
       <c r="C34" t="s">
+        <v>565</v>
+      </c>
+      <c r="D34" t="s">
         <v>566</v>
-      </c>
-      <c r="D34" t="s">
-        <v>567</v>
       </c>
       <c r="E34">
         <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B35">
         <v>2022</v>
       </c>
       <c r="C35" t="s">
+        <v>565</v>
+      </c>
+      <c r="D35" t="s">
         <v>566</v>
-      </c>
-      <c r="D35" t="s">
-        <v>567</v>
       </c>
       <c r="E35">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B36">
         <v>2022</v>
       </c>
       <c r="C36" t="s">
+        <v>565</v>
+      </c>
+      <c r="D36" t="s">
         <v>566</v>
-      </c>
-      <c r="D36" t="s">
-        <v>567</v>
       </c>
       <c r="E36">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B37">
         <v>2022</v>
       </c>
       <c r="C37" t="s">
+        <v>565</v>
+      </c>
+      <c r="D37" t="s">
         <v>566</v>
-      </c>
-      <c r="D37" t="s">
-        <v>567</v>
       </c>
       <c r="E37">
         <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B38">
         <v>2022</v>
       </c>
       <c r="C38" t="s">
+        <v>565</v>
+      </c>
+      <c r="D38" t="s">
         <v>566</v>
-      </c>
-      <c r="D38" t="s">
-        <v>567</v>
       </c>
       <c r="E38">
         <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -19515,16 +19515,16 @@
         <v>2022</v>
       </c>
       <c r="C39" t="s">
+        <v>565</v>
+      </c>
+      <c r="D39" t="s">
         <v>566</v>
-      </c>
-      <c r="D39" t="s">
-        <v>567</v>
       </c>
       <c r="E39">
         <v>13</v>
       </c>
       <c r="F39" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -19535,116 +19535,116 @@
         <v>2022</v>
       </c>
       <c r="C40" t="s">
+        <v>565</v>
+      </c>
+      <c r="D40" t="s">
         <v>566</v>
-      </c>
-      <c r="D40" t="s">
-        <v>567</v>
       </c>
       <c r="E40">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41" t="s">
+        <v>565</v>
+      </c>
+      <c r="D41" t="s">
         <v>566</v>
-      </c>
-      <c r="D41" t="s">
-        <v>567</v>
       </c>
       <c r="E41">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B42">
         <v>2022</v>
       </c>
       <c r="C42" t="s">
+        <v>565</v>
+      </c>
+      <c r="D42" t="s">
         <v>566</v>
-      </c>
-      <c r="D42" t="s">
-        <v>567</v>
       </c>
       <c r="E42">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B43">
         <v>2022</v>
       </c>
       <c r="C43" t="s">
+        <v>565</v>
+      </c>
+      <c r="D43" t="s">
         <v>566</v>
-      </c>
-      <c r="D43" t="s">
-        <v>567</v>
       </c>
       <c r="E43">
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B44">
         <v>2022</v>
       </c>
       <c r="C44" t="s">
+        <v>565</v>
+      </c>
+      <c r="D44" t="s">
         <v>566</v>
-      </c>
-      <c r="D44" t="s">
-        <v>567</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B45">
         <v>2022</v>
       </c>
       <c r="C45" t="s">
+        <v>565</v>
+      </c>
+      <c r="D45" t="s">
         <v>566</v>
-      </c>
-      <c r="D45" t="s">
-        <v>567</v>
       </c>
       <c r="E45">
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -19655,56 +19655,56 @@
         <v>2022</v>
       </c>
       <c r="C46" t="s">
+        <v>565</v>
+      </c>
+      <c r="D46" t="s">
         <v>566</v>
-      </c>
-      <c r="D46" t="s">
-        <v>567</v>
       </c>
       <c r="E46">
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B47">
         <v>2022</v>
       </c>
       <c r="C47" t="s">
+        <v>565</v>
+      </c>
+      <c r="D47" t="s">
         <v>566</v>
-      </c>
-      <c r="D47" t="s">
-        <v>567</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B48">
         <v>2022</v>
       </c>
       <c r="C48" t="s">
+        <v>565</v>
+      </c>
+      <c r="D48" t="s">
         <v>566</v>
-      </c>
-      <c r="D48" t="s">
-        <v>567</v>
       </c>
       <c r="E48">
         <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -19715,16 +19715,16 @@
         <v>2022</v>
       </c>
       <c r="C49" t="s">
+        <v>565</v>
+      </c>
+      <c r="D49" t="s">
         <v>566</v>
-      </c>
-      <c r="D49" t="s">
-        <v>567</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -19735,36 +19735,36 @@
         <v>2022</v>
       </c>
       <c r="C50" t="s">
+        <v>565</v>
+      </c>
+      <c r="D50" t="s">
         <v>566</v>
-      </c>
-      <c r="D50" t="s">
-        <v>567</v>
       </c>
       <c r="E50">
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B51">
         <v>2022</v>
       </c>
       <c r="C51" t="s">
+        <v>565</v>
+      </c>
+      <c r="D51" t="s">
         <v>566</v>
-      </c>
-      <c r="D51" t="s">
-        <v>567</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
